--- a/2022/Symphony/AUGUST/21.08.2022/MC Bank Statement Aug-2022.xlsx
+++ b/2022/Symphony/AUGUST/21.08.2022/MC Bank Statement Aug-2022.xlsx
@@ -9581,6 +9581,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9597,9 +9600,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34105,8 +34105,8 @@
   </sheetPr>
   <dimension ref="A1:Y204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="A1:E34"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34504,7 +34504,7 @@
         <v>120</v>
       </c>
       <c r="E14" s="240">
-        <v>42100</v>
+        <v>14200</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="233"/>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="E17" s="243">
         <f>SUM(E5:E16)</f>
-        <v>9210548.1400000006</v>
+        <v>9182648.1400000006</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="12"/>
@@ -34629,7 +34629,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="112">
         <f>B17-E17</f>
-        <v>0</v>
+        <v>27900</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
